--- a/biology/Zoologie/Ganopristis/Ganopristis.xlsx
+++ b/biology/Zoologie/Ganopristis/Ganopristis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ganopristis est un genre éteint de poissons scies dont les restes fossiles ont été mis au jour dans des strates datant du Maastrichtien (Crétacé supérieur), en particulier dans les mines de phosphates du Maroc.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ganopristis hiram
 Ganopristis leptodon (espèce type)
